--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74944.15552869528</v>
+        <v>-77382.62862844218</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>165.2361098005107</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>6.406043163690915</v>
       </c>
       <c r="T2" t="n">
-        <v>183.1060521027575</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851116</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.823855907612748</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>225.528676622491</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>66.78780403763429</v>
+        <v>189.239586566782</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>28.06851699741039</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>140.7556431232402</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>229.9618523285295</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506828</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.170306912261185</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>55.52079624060607</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>132.6315337216692</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520935</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.4093105446543</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>105.9893107373018</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365869</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>102.7111628144459</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>79.41314830964167</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428527</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>35.63623515385353</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>59.96838802184504</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1647.321240915451</v>
+        <v>1399.056131943216</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3319.135070938776</v>
       </c>
       <c r="T2" t="n">
-        <v>3030.359544951662</v>
+        <v>3113.157323322998</v>
       </c>
       <c r="U2" t="n">
-        <v>2776.829068225498</v>
+        <v>2859.626846596834</v>
       </c>
       <c r="V2" t="n">
-        <v>2776.829068225498</v>
+        <v>2528.563959253263</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.060412955384</v>
+        <v>2175.795303983149</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.060412955384</v>
+        <v>2175.795303983149</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.921080979572</v>
+        <v>1785.655972007338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396066</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>829.2142698811541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>829.2142698811541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>829.2142698811541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>829.2142698811541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>829.2142698811541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>601.2247189831368</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4321398396066</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2001.6439622052</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1632.681445264788</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.415746658038</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E5" t="n">
-        <v>888.6274940597937</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.243802269322</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.243802269322</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.4020639300938</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>241.0813405854472</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>241.0813405854472</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>241.0813405854472</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>241.0813405854472</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>688.8791312795107</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U7" t="n">
-        <v>688.8791312795107</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V7" t="n">
-        <v>434.1946430736239</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W7" t="n">
-        <v>434.1946430736239</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="X7" t="n">
-        <v>434.1946430736239</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.4020639300938</v>
+        <v>410.0175235133541</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4832,22 +4832,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879445</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600376</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477018</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653087</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673984</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>320.187066270882</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181842</v>
+        <v>313.9544330261738</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>221.343178181171</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327666</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>594.8179559048597</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>444.7013164925239</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>296.7882229101308</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122204</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122204</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>149.8982754122204</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2312.991837396757</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>945.4026036630063</v>
       </c>
     </row>
     <row r="14">
@@ -5258,22 +5258,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5282,28 +5282,28 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2272.857469997005</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2272.857469997005</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.782243341202</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135315</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611863</v>
+        <v>1729.097755135315</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138459</v>
+        <v>1501.108204237298</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138459</v>
+        <v>1280.315625093768</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434748</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155679</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>550.9217088032321</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>403.008615220839</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>256.1186677229286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235168</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.50678425811</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.50678425811</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052223</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015262</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117245</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973715</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,16 +5765,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400749</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>344.917417812168</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782988</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038375</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487571</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510512</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.38585385471</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648823</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611862</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138447</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703146</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2410.966886455156</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2410.966886455156</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2191.365421478097</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.290194822295</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,16 +6835,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7552,13 +7552,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200.0367819704968</v>
       </c>
       <c r="D2" t="n">
-        <v>176.7779867050529</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.81191803686269</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>25.74504007795944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>48.39475227997539</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.42266963728295</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.03697526434284</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>64.53565828418198</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>86.11098998262717</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409392708</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>55.74112246243956</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>30.73901155626816</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472413</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1007753.959505709</v>
+        <v>1007753.95950571</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794692</v>
+        <v>298593.7657794694</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457133</v>
@@ -26323,22 +26323,22 @@
         <v>322858.6398760026</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
@@ -26350,10 +26350,10 @@
         <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138717</v>
+        <v>51041.86039138731</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
         <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26445,16 +26445,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1189126.780900904</v>
+        <v>-1189313.174289443</v>
       </c>
       <c r="C6" t="n">
-        <v>126886.0232802673</v>
+        <v>126886.0232802674</v>
       </c>
       <c r="D6" t="n">
-        <v>126886.0232802678</v>
+        <v>126886.0232802674</v>
       </c>
       <c r="E6" t="n">
-        <v>-119112.99176214</v>
+        <v>-119147.7296875757</v>
       </c>
       <c r="F6" t="n">
-        <v>206299.4700452157</v>
+        <v>206264.7321197803</v>
       </c>
       <c r="G6" t="n">
-        <v>206299.4700452157</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="H6" t="n">
-        <v>206299.4700452157</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="I6" t="n">
-        <v>206299.4700452158</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="J6" t="n">
-        <v>-11231.73235206174</v>
+        <v>-11266.47027749749</v>
       </c>
       <c r="K6" t="n">
-        <v>206299.4700452155</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="L6" t="n">
-        <v>206299.4700452159</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="M6" t="n">
-        <v>121244.4421097037</v>
+        <v>121209.7041842681</v>
       </c>
       <c r="N6" t="n">
-        <v>206299.4700452155</v>
+        <v>206264.7321197798</v>
       </c>
       <c r="O6" t="n">
-        <v>206299.4700452157</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="P6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.7321197798</v>
       </c>
     </row>
   </sheetData>
@@ -26790,25 +26790,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>177.9050549156301</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>102.7817186244849</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>187.9451694238292</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.1809787665461897</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>340.0882417040772</v>
+        <v>217.6364591749294</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>137.9572912616178</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>78.79330615292903</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>135.3110394424781</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194521</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351654</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.9673364115668</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,37 +31592,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31631,7 +31631,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31680,16 +31680,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31698,19 +31698,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250652</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,19 +32318,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>526.2989357561996</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
         <v>157.2826706286436</v>
@@ -35343,13 +35343,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.8146617507062</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010482</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295643</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>394.9572236728663</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
